--- a/ConvertHTParking/templates/BaseCard.xlsx
+++ b/ConvertHTParking/templates/BaseCard.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All Data\LOVAD\All Projects\LParking\branches\LParking_v2.0\Source\LParking_OLD\ExportTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Projects\ConvertHTParking\ConvertHTParking\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BD340E-9AF0-4A93-85EE-2E8F9C812BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6F9C83-95C8-45E2-A30E-CD3ABA351368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!#REF!</definedName>
@@ -105,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>STT</t>
   </si>
@@ -125,21 +123,6 @@
     <t>Loại thẻ
 (1: thẻ ngày
 2: thẻ khách hàng)</t>
-  </si>
-  <si>
-    <t>4222415100</t>
-  </si>
-  <si>
-    <t>Xe Máy</t>
-  </si>
-  <si>
-    <t>1533079292</t>
-  </si>
-  <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>0001</t>
   </si>
   <si>
     <t>Loại xe
@@ -176,7 +159,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,9 +290,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -347,9 +330,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -382,26 +365,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -434,26 +400,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -630,10 +579,10 @@
   <dimension ref="A2:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="24.42578125" style="1" customWidth="1"/>
@@ -643,7 +592,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="18" customHeight="1">
       <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
@@ -652,22 +601,22 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="18" customHeight="1">
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="36" customHeight="1">
       <c r="H4" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="2" customFormat="1" ht="48.75" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -681,60 +630,37 @@
         <v>5</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
+    <row r="6" spans="1:12" ht="18" customHeight="1">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>2</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
+    <row r="7" spans="1:12" ht="18" customHeight="1">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -745,28 +671,4 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>